--- a/t/phonetic.xlsx
+++ b/t/phonetic.xlsx
@@ -60,7 +60,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>課きく毛こ</t>
+    <t>課きく 毛こ</t>
     <rPh sb="0" eb="1">
       <t>カ</t>
     </rPh>
